--- a/myCode/test_ghg_penalty/Result/output_log.xlsx
+++ b/myCode/test_ghg_penalty/Result/output_log.xlsx
@@ -1,14 +1,32 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="w90_GHG_1_8C_67_BIO_0_value" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +417,730 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Deviation Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deviation Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Economic Objective Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Objective Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.107034601716957e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.076521064427569e-09</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.142232560224825e-07</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.01964830606615183</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.184525884466501e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.373991861472654e-10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3.230156575633259e-07</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.02962694057426954</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.732383113591505e-10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.877449978539663e-10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.280636825626555e-07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.03008995424913103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.856760679195381e-10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.533194565049937e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.240986144975494e-07</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.02972625610799254</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.008736655848241414</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.522588454596458e-11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-3.123997905231612e-07</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.02079028599110294</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.417292626144218e-09</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.655389816042059e-09</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.856253928460726e-07</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.02619749065761757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.007191855592142822</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.278346779333417e-10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2.633428091533572e-07</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.01768109139700327</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.003833495897063091</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.460398198221922e-09</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-2.751052283095473e-07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.02178244354935474</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.008394433806056053</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001653842816082795</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3.354004855338759e-07</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.0193379163780249</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.008790013060248132</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0006639864946335548</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-3.943191256917262e-07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.0127186150478844</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01214602626341376</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001187693385054387</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.287059597287949e-07</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01774656109161724</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1409035443525359</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001590969242893902</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-3.506657342620535e-07</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1318788441210777</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.131096076485036</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.002087561727462533</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-3.832191814758006e-07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1316865882560957</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.125660718372422</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002495113013909439</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-3.983263501369699e-07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1349458380587281</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1202896375800997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.002875760418353885</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-3.820023663303143e-07</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1405162487719878</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1046554065773803</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003389691744177168</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.074569165616476e-07</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1361367450920433</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1051939289244421</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.003845866134120285</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-4.282343777830377e-07</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1453901892635854</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.106786231080502</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.004325663378048537</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.653093614087078e-07</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1546500029213158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0985081006572807</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00483032839982927</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-4.803015614177171e-07</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1576337639644729</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.09668575502446423</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.005337604445889251</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-4.782831169616041e-07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.168049043896419</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.09897102339144419</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.005819320427372441</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.857100580047e-07</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1806967411036322</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.09329121921681746</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.006253225279238211</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.274399579850979e-07</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1910828186269076</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.09589485701901015</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.006719907357001223</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-4.011711548682926e-07</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2067558252635308</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1943889473891637</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.007185111345972717</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-6.125687001823782e-07</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2868969182221484</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1669465079591334</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007645416751741334</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-6.104348590525995e-07</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2731655849251534</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1684886481083637</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008109703131340684</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-6.617671768463163e-07</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2807096172872791</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1717336964472497</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.008501431968477021</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-6.740731537687606e-07</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2916679126085308</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1748611434019613</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.008928424376310095</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-7.142480065690439e-07</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3007894037296998</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1815720479316786</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.009340068505390129</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-7.533025357573936e-07</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3128796129152226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1886088441128048</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.009772994226710369</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-8.145054171581546e-07</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3237296691953427</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.2022430762153349</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01017828798668089</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-8.741215706344254e-07</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3400163644356889</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2187078279790436</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01057919753589157</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-9.292483118095686e-07</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3591597052866725</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2450578049358804</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01095385659917129</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-9.796188894891413e-07</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3870217222808612</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2472904845763501</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01133615958980443</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.037609657548087e-06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3926581164907956</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2452019780908763</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01170455925508556</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1.092171005675525e-06</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3943946514273395</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.2429266498728927</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0121083576876582</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1.198077106605754e-06</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3920820423666357</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.2297139528408841</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01251948981203012</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.316188297095905e-06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3789779601675483</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2141944804347578</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0129179874743598</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1.386394039998651e-06</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3678960165820235</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1890417481606891</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01334968204784399</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1.659630554803331e-06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3302989847406573</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1729332940322396</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01375660231164152</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.976183422934936e-06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2962891127881864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>